--- a/上海落户/2021年非上海生源应届生落户/材料包/1-《2021年非上海生源应届普通高校毕业生进沪就业办理户籍申请表》填写.xlsx
+++ b/上海落户/2021年非上海生源应届生落户/材料包/1-《2021年非上海生源应届普通高校毕业生进沪就业办理户籍申请表》填写.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIO\NIO筹备\2021计划\NIO茶馆\应届生\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\biye_eassy\上海落户\2021年非上海生源应届生落户\材料包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22BC96-0581-4762-AB19-AD725AFFD07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B7BDD-2B36-4E10-AB37-103B7893F7E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{D3507689-AFDD-49A9-9619-2FD179873BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3507689-AFDD-49A9-9619-2FD179873BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>员工工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,12 +1164,73 @@
     <t>《2021年非上海生源应届普通高校毕业生进沪就业办理户籍申请表》（即本表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>周彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>大连理工大学 10141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非定向</t>
+  </si>
+  <si>
+    <t>中共预备党员</t>
+  </si>
+  <si>
+    <t>本科阶段为高水平大学</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>车辆工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学英语六级总分425（含）以上</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>山东科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省沂南县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,142 +1737,151 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,6 +1890,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1844,7 +1977,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2136,61 +2269,61 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+      <selection activeCell="O7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-    </row>
-    <row r="3" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2206,7 +2339,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="21.75" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2224,60 +2357,68 @@
       <c r="O4" s="3"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:17" ht="21.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" thickTop="1">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="55"/>
+      <c r="O6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="24"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="16">
+        <v>3.7132119970105299E+17</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2286,35 +2427,43 @@
         <v>38</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="16"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="O7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="25"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
       <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="16"/>
       <c r="K8" s="9" t="s">
         <v>30</v>
       </c>
@@ -2323,27 +2472,33 @@
         <v>41</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="54"/>
+      <c r="O8" s="59">
+        <v>43344</v>
+      </c>
+      <c r="P8" s="22"/>
       <c r="Q8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="16"/>
       <c r="K9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2352,24 +2507,30 @@
         <v>44</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="54"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O9" s="21">
+        <v>3</v>
+      </c>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3"/>
       <c r="G10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="16"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2377,7 +2538,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2395,7 +2556,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21.75" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2413,145 +2574,159 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:17" ht="56.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="56.25" customHeight="1" thickTop="1">
+      <c r="A14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="1:17" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="C15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:17" ht="159" customHeight="1">
+      <c r="A16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2559,711 +2734,722 @@
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:17" ht="84.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="84.75" customHeight="1" thickTop="1">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48" t="s">
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="34"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="60">
+        <v>41883</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="61">
+        <v>43281</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A24" s="60">
+        <v>43344</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="61">
+        <v>44377</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:17" ht="105.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" ht="105.75" customHeight="1" thickTop="1">
+      <c r="A26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="33"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
+    <row r="29" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="25"/>
       <c r="Q29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:17" ht="127.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="127.5" customHeight="1" thickTop="1">
+      <c r="A31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="28"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48" t="s">
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="33"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
+    <row r="34" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A34" s="33"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:17" ht="44.25" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-    </row>
-    <row r="36" spans="1:17" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="1:17" ht="138.75" customHeight="1" thickBot="1">
+      <c r="A36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
-    </row>
-    <row r="37" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+    </row>
+    <row r="37" spans="1:17" ht="47.25" customHeight="1">
+      <c r="A37" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="1:17" s="12" customFormat="1">
+      <c r="A38" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16" t="s">
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="24"/>
-    </row>
-    <row r="39" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="52"/>
+    </row>
+    <row r="39" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A39" s="57">
         <v>1</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="17" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="22"/>
-    </row>
-    <row r="40" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A40" s="57">
         <v>2</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="22"/>
-    </row>
-    <row r="41" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="48"/>
+    </row>
+    <row r="41" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A41" s="57">
         <v>3</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="17" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="22"/>
-    </row>
-    <row r="42" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+    </row>
+    <row r="42" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A42" s="57">
         <v>4</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="22"/>
-    </row>
-    <row r="43" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="48"/>
+    </row>
+    <row r="43" spans="1:17" s="12" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A43" s="57">
         <v>5</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:17" s="12" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="48"/>
+    </row>
+    <row r="44" spans="1:17" s="12" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A44" s="57">
         <v>6</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="17" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17" t="s">
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="22"/>
-    </row>
-    <row r="45" spans="1:17" s="12" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="48"/>
+    </row>
+    <row r="45" spans="1:17" s="12" customFormat="1" ht="249.75" customHeight="1">
+      <c r="A45" s="57">
         <v>7</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="17" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17" t="s">
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="22"/>
-    </row>
-    <row r="46" spans="1:17" s="12" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="48"/>
+    </row>
+    <row r="46" spans="1:17" s="12" customFormat="1" ht="170.25" customHeight="1">
+      <c r="A46" s="57">
         <v>8</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="17" t="s">
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17" t="s">
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="22"/>
-    </row>
-    <row r="47" spans="1:17" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="48"/>
+    </row>
+    <row r="47" spans="1:17" s="12" customFormat="1" ht="127.5" customHeight="1">
+      <c r="A47" s="57">
         <v>9</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="17" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="22"/>
-    </row>
-    <row r="48" spans="1:17" s="12" customFormat="1" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="48"/>
+    </row>
+    <row r="48" spans="1:17" s="12" customFormat="1" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A48" s="56">
         <v>10</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="55"/>
+      <c r="C48" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18" t="s">
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="23"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="I44:P44"/>
+    <mergeCell ref="I45:P45"/>
+    <mergeCell ref="I46:P46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F48:H48"/>
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A36:P36"/>
@@ -3288,58 +3474,60 @@
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="L28:P28"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="I41:P41"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="I44:P44"/>
-    <mergeCell ref="I45:P45"/>
-    <mergeCell ref="I46:P46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="18">
+  <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J6" xr:uid="{DBC00D58-15DA-4478-98B6-A085D2C7C67F}">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O6:P7" xr:uid="{8FD5FB92-C6D3-4EFA-BD0D-A43FC6527D77}">
-      <formula1>"北京市（110000）,北京市市辖区（110100）,北京市东城区（110101）,北京市西城区（110102）,北京市朝阳区（110105）,北京市丰台区（110106）,北京市石景山区（110107）,北京市海淀区（110108）,北京市门头沟区（110109）,北京市房山区（110111）,北京市通州区（110112）,北京市顺义区（110113）,北京市昌平区（110114）,北京市大兴区（110115）,北京市怀柔区（110116）,北京市平谷区（110117）,北京市密云区（110118）"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:J7" xr:uid="{9C44D251-1B16-4D3D-B30C-EBC9EB539B3E}">
       <formula1>"春季,秋季"</formula1>
